--- a/LogBoek.xlsx
+++ b/LogBoek.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a0d76611e4fcb8ab/IntroductieProjectGame/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carov\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="8_{EDAB0570-C157-44BD-ACF5-09C2C33676ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0216887B-E23E-4A47-A2E3-F306A1589F9A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07976BA0-7F3D-4E62-B2D4-7BE977861789}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{A73DDC6E-D395-4C83-91A8-6AE096C487A4}"/>
+    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11835" xr2:uid="{A73DDC6E-D395-4C83-91A8-6AE096C487A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,15 +42,9 @@
     <t xml:space="preserve">13-11 </t>
   </si>
   <si>
-    <t>2 uur</t>
-  </si>
-  <si>
     <t>Notitie</t>
   </si>
   <si>
-    <t>Meeting</t>
-  </si>
-  <si>
     <t>Meetings</t>
   </si>
   <si>
@@ -67,6 +61,12 @@
   </si>
   <si>
     <t>Phillipi2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeting  </t>
+  </si>
+  <si>
+    <t>1/2 uur</t>
   </si>
 </sst>
 </file>
@@ -423,7 +423,7 @@
   <dimension ref="B2:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -436,19 +436,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" t="s">
         <v>6</v>
-      </c>
-      <c r="H2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
@@ -456,19 +456,19 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J3" s="2">
         <v>0.45833333333333331</v>
